--- a/biology/Botanique/Vulpia_ciliata/Vulpia_ciliata.xlsx
+++ b/biology/Botanique/Vulpia_ciliata/Vulpia_ciliata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vulpia ciliata, la Vulpie ciliée, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie.
 Ce sont des plantes herbacées annuelles de 30 cm de haut. La fleur de cette espèce se distingue par la présence d'une seule étamine.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (13 décembre 2017)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (13 décembre 2017) :
 Distomischus ciliatus (Dumort.) Dulac
 Festuca aetnensis (Tineo) Walp., nom. illeg.
 Festuca ambigua Le Gall
@@ -548,8 +565,43 @@
 Vulpia mandaliscae Lojac.
 Vulpia myuros var. ciliata (Dumort.) Bonnier &amp; Barratte
 Vulpia unioloides Lojac.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (13 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vulpia_ciliata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vulpia_ciliata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (13 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Vulpia ciliata subsp. ambigua (Le Gall) Stace &amp; Auquier
 Vulpia ciliata subsp. ciliata
@@ -559,33 +611,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Vulpia_ciliata</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Vulpia_ciliata</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fleurs sont de couleur verte disposées en épi d'épillets. Plante hermaphrodite, autogame dont la dissémination s'effectue par épizoochorie[4]. Les limbes peuvent atteindre une longueur d'environ 10 cm et une largeur de 2 mm[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont de couleur verte disposées en épi d'épillets. Plante hermaphrodite, autogame dont la dissémination s'effectue par épizoochorie. Les limbes peuvent atteindre une longueur d'environ 10 cm et une largeur de 2 mm.
 </t>
         </is>
       </c>
